--- a/outputs-HGR-r202/f__Streptococcaceae.xlsx
+++ b/outputs-HGR-r202/f__Streptococcaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -635,6 +685,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +708,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,6 +731,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +754,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -707,6 +777,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -725,6 +800,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -743,6 +823,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -761,6 +846,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -779,6 +869,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -797,6 +892,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -815,6 +915,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -833,6 +938,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -851,6 +961,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -869,6 +984,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -887,6 +1007,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -905,6 +1030,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -923,6 +1053,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -941,6 +1076,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -959,6 +1099,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -977,6 +1122,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -995,6 +1145,11 @@
           <t>g__Streptococcus</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1009,6 +1164,11 @@
         <v>1</v>
       </c>
       <c r="D32" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>

--- a/outputs-HGR-r202/f__Streptococcaceae.xlsx
+++ b/outputs-HGR-r202/f__Streptococcaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -468,17 +463,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>6422.554661072401</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -491,17 +483,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>4094.559754097033</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -514,17 +503,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>5840.972492930345</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -537,17 +523,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+        <v>4503.490017348013</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -560,17 +543,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>5527.399507626282</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -583,17 +563,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+        <v>5322.457917588043</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -606,17 +583,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+        <v>5497.207733982736</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -629,17 +603,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+        <v>9320.372100309036</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -652,17 +623,14 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
+        <v>6723.246708300027</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -675,17 +643,14 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
+        <v>9302.877988982826</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -698,17 +663,14 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+        <v>11112.98756336252</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -721,17 +683,14 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>4657.974863404017</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -744,17 +703,14 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>4486.473016585671</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -767,17 +723,14 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>4622.675904585194</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -790,17 +743,14 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
+        <v>4869.069683910613</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -813,17 +763,14 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+        <v>4869.069683910613</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -836,17 +783,14 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
+        <v>4869.069683910613</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -859,17 +803,14 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
+        <v>4869.069683910613</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -882,17 +823,14 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
+        <v>4292.357644096977</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -905,17 +843,14 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
+        <v>4292.357644096977</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -928,17 +863,14 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
+        <v>4869.069683910613</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -951,17 +883,14 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
+        <v>4869.069683910613</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -974,17 +903,14 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
+        <v>4869.069683910613</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -997,17 +923,14 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
+        <v>4869.069683910613</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -1020,17 +943,14 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
+        <v>4869.069683910613</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -1043,17 +963,14 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
+        <v>4292.357644096977</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -1066,17 +983,14 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
+        <v>4869.069683910613</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -1089,17 +1003,14 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
+        <v>4869.069683910613</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -1112,17 +1023,14 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
+        <v>4292.357644096977</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -1135,17 +1043,14 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
+        <v>9662.041362311038</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
@@ -1158,17 +1063,14 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
+        <v>5740.240021630538</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
